--- a/MainTop/20.08.2024/таня 10дней/печать_a4.xlsx
+++ b/MainTop/20.08.2024/таня 10дней/печать_a4.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve">Unnamed: 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_Copies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип упорядочить</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черный Кот Звезды Астрология</t>
@@ -417,10 +417,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
+      <selection pane="topLeft" activeCell="K84" activeCellId="0" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,11 +451,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,6 +489,12 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -515,6 +524,12 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -544,6 +559,16 @@
       <c r="I4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4/2</f>
+        <v>64</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -573,6 +598,16 @@
       <c r="I5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J5" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5/2</f>
+        <v>46</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -602,6 +637,16 @@
       <c r="I6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">J6/2</f>
+        <v>34</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -631,6 +676,16 @@
       <c r="I7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">J7/2</f>
+        <v>30</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -660,6 +715,16 @@
       <c r="I8" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">J8/2</f>
+        <v>30</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -689,6 +754,17 @@
       <c r="I9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">H9-2</f>
+        <v>52</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">J9/2</f>
+        <v>26</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -718,6 +794,16 @@
       <c r="I10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10/2</f>
+        <v>18</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -747,6 +833,17 @@
       <c r="I11" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">H11-2</f>
+        <v>36</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">J11/2</f>
+        <v>18</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -776,6 +873,17 @@
       <c r="I12" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">H12-2</f>
+        <v>36</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J12/2</f>
+        <v>18</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -805,6 +913,16 @@
       <c r="I13" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">J13/2</f>
+        <v>16</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -834,6 +952,17 @@
       <c r="I14" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">H14-2</f>
+        <v>28</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">J14/2</f>
+        <v>14</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -863,6 +992,16 @@
       <c r="I15" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15/2</f>
+        <v>12</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -892,6 +1031,16 @@
       <c r="I16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">J16/2</f>
+        <v>12</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -921,6 +1070,17 @@
       <c r="I17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">H17-2</f>
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">J17/2</f>
+        <v>10</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -950,6 +1110,17 @@
       <c r="I18" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">H18-2</f>
+        <v>20</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">J18/2</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -979,6 +1150,16 @@
       <c r="I19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">J19/2</f>
+        <v>8</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1008,6 +1189,16 @@
       <c r="I20" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J20" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">J20/2</f>
+        <v>8</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1037,6 +1228,16 @@
       <c r="I21" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">J21/2</f>
+        <v>8</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1066,6 +1267,16 @@
       <c r="I22" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">J22/2</f>
+        <v>6</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1095,6 +1306,16 @@
       <c r="I23" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">J23/2</f>
+        <v>6</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1124,6 +1345,16 @@
       <c r="I24" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">J24/2</f>
+        <v>6</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1153,6 +1384,16 @@
       <c r="I25" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">J25/2</f>
+        <v>6</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1182,6 +1423,16 @@
       <c r="I26" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">J26/2</f>
+        <v>6</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1211,6 +1462,16 @@
       <c r="I27" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">J27/2</f>
+        <v>6</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1239,6 +1500,16 @@
       </c>
       <c r="I28" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">J28/2</f>
+        <v>4</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,6 +1540,16 @@
       <c r="I29" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">J29/2</f>
+        <v>4</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1298,6 +1579,16 @@
       <c r="I30" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">J30/2</f>
+        <v>4</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1327,6 +1618,16 @@
       <c r="I31" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">J31/2</f>
+        <v>4</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1356,6 +1657,16 @@
       <c r="I32" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">J32/2</f>
+        <v>4</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1385,6 +1696,16 @@
       <c r="I33" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">J33/2</f>
+        <v>4</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1414,6 +1735,16 @@
       <c r="I34" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">J34/2</f>
+        <v>4</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1443,6 +1774,16 @@
       <c r="I35" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">J35/2</f>
+        <v>4</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1472,6 +1813,16 @@
       <c r="I36" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">J36/2</f>
+        <v>4</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1501,6 +1852,16 @@
       <c r="I37" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">J37/2</f>
+        <v>2</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1530,6 +1891,16 @@
       <c r="I38" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">J38/2</f>
+        <v>2</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1559,6 +1930,16 @@
       <c r="I39" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">J39/2</f>
+        <v>2</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1588,6 +1969,16 @@
       <c r="I40" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">J40/2</f>
+        <v>2</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1617,6 +2008,12 @@
       <c r="I41" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1646,6 +2043,12 @@
       <c r="I42" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1675,6 +2078,12 @@
       <c r="I43" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1704,6 +2113,12 @@
       <c r="I44" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1733,6 +2148,12 @@
       <c r="I45" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1762,6 +2183,12 @@
       <c r="I46" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1791,6 +2218,12 @@
       <c r="I47" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1820,6 +2253,12 @@
       <c r="I48" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1849,6 +2288,12 @@
       <c r="I49" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1878,6 +2323,12 @@
       <c r="I50" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1907,6 +2358,12 @@
       <c r="I51" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -1936,6 +2393,12 @@
       <c r="I52" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -1965,6 +2428,12 @@
       <c r="I53" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -1994,6 +2463,12 @@
       <c r="I54" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -2023,6 +2498,12 @@
       <c r="I55" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -2052,6 +2533,12 @@
       <c r="I56" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -2081,6 +2568,12 @@
       <c r="I57" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -2110,6 +2603,12 @@
       <c r="I58" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -2139,6 +2638,12 @@
       <c r="I59" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -2168,6 +2673,12 @@
       <c r="I60" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -2197,6 +2708,12 @@
       <c r="I61" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -2226,6 +2743,12 @@
       <c r="I62" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -2255,6 +2778,12 @@
       <c r="I63" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -2284,6 +2813,12 @@
       <c r="I64" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -2313,6 +2848,12 @@
       <c r="I65" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -2342,6 +2883,12 @@
       <c r="I66" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -2371,6 +2918,12 @@
       <c r="I67" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -2400,6 +2953,12 @@
       <c r="I68" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -2429,6 +2988,12 @@
       <c r="I69" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -2458,6 +3023,12 @@
       <c r="I70" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -2487,6 +3058,12 @@
       <c r="I71" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -2516,6 +3093,12 @@
       <c r="I72" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -2545,6 +3128,12 @@
       <c r="I73" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -2574,6 +3163,12 @@
       <c r="I74" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -2603,6 +3198,12 @@
       <c r="I75" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -2632,6 +3233,12 @@
       <c r="I76" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -2661,6 +3268,12 @@
       <c r="I77" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -2690,6 +3303,12 @@
       <c r="I78" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -2719,6 +3338,12 @@
       <c r="I79" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -2748,6 +3373,12 @@
       <c r="I80" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -2777,6 +3408,12 @@
       <c r="I81" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -2806,6 +3443,12 @@
       <c r="I82" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -2834,6 +3477,26 @@
       </c>
       <c r="I83" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H84" s="0" t="n">
+        <f aca="false">SUM(H2:H83)</f>
+        <v>1060</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <f aca="false">SUM(J2:J83)</f>
+        <v>1014</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <f aca="false">SUM(K2:K83)</f>
+        <v>552</v>
       </c>
     </row>
     <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/MainTop/20.08.2024/таня 10дней/печать_a4.xlsx
+++ b/MainTop/20.08.2024/таня 10дней/печать_a4.xlsx
@@ -342,12 +342,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -391,13 +397,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,6 +419,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,13 +490,15 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K84" activeCellId="0" sqref="K84"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="2:83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,347 +533,347 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="D2" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="J2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="D3" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="J3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>5.7</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>180.9</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">J4/2</f>
         <v>64</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="2" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>5.9</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>104.3</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="2" t="n">
         <f aca="false">J5/2</f>
         <v>46</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="2" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>2.9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">J6/2</f>
         <v>34</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="2" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D7" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="2" t="n">
         <f aca="false">J7/2</f>
         <v>30</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="2" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>62.3</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="2" t="n">
         <f aca="false">J8/2</f>
         <v>30</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="2" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>55.8</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="n">
         <f aca="false">H9-2</f>
         <v>52</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">J9/2</f>
         <v>26</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1202.2</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="2" t="n">
+        <v>1202.2</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">J10/2</f>
         <v>18</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <v>18</v>
       </c>
     </row>
